--- a/src/test/resources/testdata/LoginData.xlsx
+++ b/src/test/resources/testdata/LoginData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse\HybridAutomationFramework\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94AD2D38-524D-4AFF-A81A-A11761980C25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F9D84C-9967-4B8F-898D-218E7DEE93D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -400,7 +400,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
